--- a/natmiOut/OldD2/LR-pairs_lrc2p/Tgfb1-Itgb6.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Tgfb1-Itgb6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>46.5692696688369</v>
+        <v>47.0283035</v>
       </c>
       <c r="H2">
-        <v>46.5692696688369</v>
+        <v>94.056607</v>
       </c>
       <c r="I2">
-        <v>0.1184336722546864</v>
+        <v>0.1170896029811303</v>
       </c>
       <c r="J2">
-        <v>0.1184336722546864</v>
+        <v>0.08213676148506427</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.252720203046769</v>
+        <v>0.255482</v>
       </c>
       <c r="N2">
-        <v>0.252720203046769</v>
+        <v>0.510964</v>
       </c>
       <c r="O2">
-        <v>0.03619842884905233</v>
+        <v>0.03385952189990703</v>
       </c>
       <c r="P2">
-        <v>0.03619842884905233</v>
+        <v>0.02768247599107402</v>
       </c>
       <c r="Q2">
-        <v>11.7689952864482</v>
+        <v>12.014885034787</v>
       </c>
       <c r="R2">
-        <v>11.7689952864482</v>
+        <v>48.059540139148</v>
       </c>
       <c r="S2">
-        <v>0.00428711285844325</v>
+        <v>0.003964597976391001</v>
       </c>
       <c r="T2">
-        <v>0.00428711285844325</v>
+        <v>0.002273748927794865</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>46.5692696688369</v>
+        <v>47.0283035</v>
       </c>
       <c r="H3">
-        <v>46.5692696688369</v>
+        <v>94.056607</v>
       </c>
       <c r="I3">
-        <v>0.1184336722546864</v>
+        <v>0.1170896029811303</v>
       </c>
       <c r="J3">
-        <v>0.1184336722546864</v>
+        <v>0.08213676148506427</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.55694002074259</v>
+        <v>2.731042</v>
       </c>
       <c r="N3">
-        <v>2.55694002074259</v>
+        <v>8.193125999999999</v>
       </c>
       <c r="O3">
-        <v>0.3662438154776892</v>
+        <v>0.3619502603258385</v>
       </c>
       <c r="P3">
-        <v>0.3662438154776892</v>
+        <v>0.4438786563962321</v>
       </c>
       <c r="Q3">
-        <v>119.0748293530031</v>
+        <v>128.436272047247</v>
       </c>
       <c r="R3">
-        <v>119.0748293530031</v>
+        <v>770.617632283482</v>
       </c>
       <c r="S3">
-        <v>0.0433756000075905</v>
+        <v>0.0423806122804692</v>
       </c>
       <c r="T3">
-        <v>0.0433756000075905</v>
+        <v>0.03645875532872811</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>46.5692696688369</v>
+        <v>47.0283035</v>
       </c>
       <c r="H4">
-        <v>46.5692696688369</v>
+        <v>94.056607</v>
       </c>
       <c r="I4">
-        <v>0.1184336722546864</v>
+        <v>0.1170896029811303</v>
       </c>
       <c r="J4">
-        <v>0.1184336722546864</v>
+        <v>0.08213676148506427</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.322475853848668</v>
+        <v>0.164664</v>
       </c>
       <c r="N4">
-        <v>0.322475853848668</v>
+        <v>0.493992</v>
       </c>
       <c r="O4">
-        <v>0.04618989344875665</v>
+        <v>0.02182323730879784</v>
       </c>
       <c r="P4">
-        <v>0.04618989344875665</v>
+        <v>0.02676298463254288</v>
       </c>
       <c r="Q4">
-        <v>15.01746499956706</v>
+        <v>7.743868567524</v>
       </c>
       <c r="R4">
-        <v>15.01746499956706</v>
+        <v>46.463211405144</v>
       </c>
       <c r="S4">
-        <v>0.005470438702188934</v>
+        <v>0.00255527419225013</v>
       </c>
       <c r="T4">
-        <v>0.005470438702188934</v>
+        <v>0.002198224885391615</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>46.5692696688369</v>
+        <v>47.0283035</v>
       </c>
       <c r="H5">
-        <v>46.5692696688369</v>
+        <v>94.056607</v>
       </c>
       <c r="I5">
-        <v>0.1184336722546864</v>
+        <v>0.1170896029811303</v>
       </c>
       <c r="J5">
-        <v>0.1184336722546864</v>
+        <v>0.08213676148506427</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>3.84938801283048</v>
+        <v>0.05316166666666666</v>
       </c>
       <c r="N5">
-        <v>3.84938801283048</v>
+        <v>0.159485</v>
       </c>
       <c r="O5">
-        <v>0.5513678622245018</v>
+        <v>0.007045618152102916</v>
       </c>
       <c r="P5">
-        <v>0.5513678622245018</v>
+        <v>0.008640412403684879</v>
       </c>
       <c r="Q5">
-        <v>179.2631884294908</v>
+        <v>2.500102994565833</v>
       </c>
       <c r="R5">
-        <v>179.2631884294908</v>
+        <v>15.000617967395</v>
       </c>
       <c r="S5">
-        <v>0.06530052068646376</v>
+        <v>0.0008249686321863755</v>
       </c>
       <c r="T5">
-        <v>0.06530052068646376</v>
+        <v>0.0007096954927340558</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.6542892654842</v>
+        <v>47.0283035</v>
       </c>
       <c r="H6">
-        <v>11.6542892654842</v>
+        <v>94.056607</v>
       </c>
       <c r="I6">
-        <v>0.02963886453545362</v>
+        <v>0.1170896029811303</v>
       </c>
       <c r="J6">
-        <v>0.02963886453545362</v>
+        <v>0.08213676148506427</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.252720203046769</v>
+        <v>0.41846</v>
       </c>
       <c r="N6">
-        <v>0.252720203046769</v>
+        <v>1.25538</v>
       </c>
       <c r="O6">
-        <v>0.03619842884905233</v>
+        <v>0.05545931037895075</v>
       </c>
       <c r="P6">
-        <v>0.03619842884905233</v>
+        <v>0.06801267155743752</v>
       </c>
       <c r="Q6">
-        <v>2.945274349538948</v>
+        <v>19.67946388261</v>
       </c>
       <c r="R6">
-        <v>2.945274349538948</v>
+        <v>118.07678329566</v>
       </c>
       <c r="S6">
-        <v>0.001072880329053318</v>
+        <v>0.006493708633878624</v>
       </c>
       <c r="T6">
-        <v>0.001072880329053318</v>
+        <v>0.00558634058167526</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>11.6542892654842</v>
+        <v>47.0283035</v>
       </c>
       <c r="H7">
-        <v>11.6542892654842</v>
+        <v>94.056607</v>
       </c>
       <c r="I7">
-        <v>0.02963886453545362</v>
+        <v>0.1170896029811303</v>
       </c>
       <c r="J7">
-        <v>0.02963886453545362</v>
+        <v>0.08213676148506427</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.55694002074259</v>
+        <v>3.922542</v>
       </c>
       <c r="N7">
-        <v>2.55694002074259</v>
+        <v>7.845084</v>
       </c>
       <c r="O7">
-        <v>0.3662438154776892</v>
+        <v>0.5198620519344028</v>
       </c>
       <c r="P7">
-        <v>0.3662438154776892</v>
+        <v>0.4250227990190287</v>
       </c>
       <c r="Q7">
-        <v>29.79931863622731</v>
+        <v>184.470495667497</v>
       </c>
       <c r="R7">
-        <v>29.79931863622731</v>
+        <v>737.881982669988</v>
       </c>
       <c r="S7">
-        <v>0.0108550508338909</v>
+        <v>0.06087044126595498</v>
       </c>
       <c r="T7">
-        <v>0.0108550508338909</v>
+        <v>0.03490999626874037</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>11.6542892654842</v>
+        <v>12.33126566666667</v>
       </c>
       <c r="H8">
-        <v>11.6542892654842</v>
+        <v>36.993797</v>
       </c>
       <c r="I8">
-        <v>0.02963886453545362</v>
+        <v>0.03070200057641551</v>
       </c>
       <c r="J8">
-        <v>0.02963886453545362</v>
+        <v>0.03230555276798244</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.322475853848668</v>
+        <v>0.255482</v>
       </c>
       <c r="N8">
-        <v>0.322475853848668</v>
+        <v>0.510964</v>
       </c>
       <c r="O8">
-        <v>0.04618989344875665</v>
+        <v>0.03385952189990703</v>
       </c>
       <c r="P8">
-        <v>0.04618989344875665</v>
+        <v>0.02768247599107402</v>
       </c>
       <c r="Q8">
-        <v>3.758226881886384</v>
+        <v>3.150416415051333</v>
       </c>
       <c r="R8">
-        <v>3.758226881886384</v>
+        <v>18.902498490308</v>
       </c>
       <c r="S8">
-        <v>0.001369015994834735</v>
+        <v>0.001039555060888099</v>
       </c>
       <c r="T8">
-        <v>0.001369015994834735</v>
+        <v>0.0008942976888780487</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,122 +968,122 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>11.6542892654842</v>
+        <v>12.33126566666667</v>
       </c>
       <c r="H9">
-        <v>11.6542892654842</v>
+        <v>36.993797</v>
       </c>
       <c r="I9">
-        <v>0.02963886453545362</v>
+        <v>0.03070200057641551</v>
       </c>
       <c r="J9">
-        <v>0.02963886453545362</v>
+        <v>0.03230555276798244</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.84938801283048</v>
+        <v>2.731042</v>
       </c>
       <c r="N9">
-        <v>3.84938801283048</v>
+        <v>8.193125999999999</v>
       </c>
       <c r="O9">
-        <v>0.5513678622245018</v>
+        <v>0.3619502603258385</v>
       </c>
       <c r="P9">
-        <v>0.5513678622245018</v>
+        <v>0.4438786563962321</v>
       </c>
       <c r="Q9">
-        <v>44.86188139661382</v>
+        <v>33.67720444882467</v>
       </c>
       <c r="R9">
-        <v>44.86188139661382</v>
+        <v>303.094840039422</v>
       </c>
       <c r="S9">
-        <v>0.01634191737767467</v>
+        <v>0.01111259710115764</v>
       </c>
       <c r="T9">
-        <v>0.01634191737767467</v>
+        <v>0.01433974535678962</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>124.734883387419</v>
+        <v>12.33126566666667</v>
       </c>
       <c r="H10">
-        <v>124.734883387419</v>
+        <v>36.993797</v>
       </c>
       <c r="I10">
-        <v>0.3172222884937735</v>
+        <v>0.03070200057641551</v>
       </c>
       <c r="J10">
-        <v>0.3172222884937735</v>
+        <v>0.03230555276798244</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.252720203046769</v>
+        <v>0.164664</v>
       </c>
       <c r="N10">
-        <v>0.252720203046769</v>
+        <v>0.493992</v>
       </c>
       <c r="O10">
-        <v>0.03619842884905233</v>
+        <v>0.02182323730879784</v>
       </c>
       <c r="P10">
-        <v>0.03619842884905233</v>
+        <v>0.02676298463254288</v>
       </c>
       <c r="Q10">
-        <v>31.52302505668359</v>
+        <v>2.030515529736</v>
       </c>
       <c r="R10">
-        <v>31.52302505668359</v>
+        <v>18.274639767624</v>
       </c>
       <c r="S10">
-        <v>0.01148294843937541</v>
+        <v>0.0006700170444339637</v>
       </c>
       <c r="T10">
-        <v>0.01148294843937541</v>
+        <v>0.0008645930122753169</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>124.734883387419</v>
+        <v>12.33126566666667</v>
       </c>
       <c r="H11">
-        <v>124.734883387419</v>
+        <v>36.993797</v>
       </c>
       <c r="I11">
-        <v>0.3172222884937735</v>
+        <v>0.03070200057641551</v>
       </c>
       <c r="J11">
-        <v>0.3172222884937735</v>
+        <v>0.03230555276798244</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>2.55694002074259</v>
+        <v>0.05316166666666666</v>
       </c>
       <c r="N11">
-        <v>2.55694002074259</v>
+        <v>0.159485</v>
       </c>
       <c r="O11">
-        <v>0.3662438154776892</v>
+        <v>0.007045618152102916</v>
       </c>
       <c r="P11">
-        <v>0.3662438154776892</v>
+        <v>0.008640412403684879</v>
       </c>
       <c r="Q11">
-        <v>318.9396153159517</v>
+        <v>0.6555506349494444</v>
       </c>
       <c r="R11">
-        <v>318.9396153159517</v>
+        <v>5.899955714544999</v>
       </c>
       <c r="S11">
-        <v>0.1161807012925239</v>
+        <v>0.0002163145725670673</v>
       </c>
       <c r="T11">
-        <v>0.1161807012925239</v>
+        <v>0.0002791332988443718</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1157,57 +1157,57 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>124.734883387419</v>
+        <v>12.33126566666667</v>
       </c>
       <c r="H12">
-        <v>124.734883387419</v>
+        <v>36.993797</v>
       </c>
       <c r="I12">
-        <v>0.3172222884937735</v>
+        <v>0.03070200057641551</v>
       </c>
       <c r="J12">
-        <v>0.3172222884937735</v>
+        <v>0.03230555276798244</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.322475853848668</v>
+        <v>0.41846</v>
       </c>
       <c r="N12">
-        <v>0.322475853848668</v>
+        <v>1.25538</v>
       </c>
       <c r="O12">
-        <v>0.04618989344875665</v>
+        <v>0.05545931037895075</v>
       </c>
       <c r="P12">
-        <v>0.04618989344875665</v>
+        <v>0.06801267155743752</v>
       </c>
       <c r="Q12">
-        <v>40.22398802507198</v>
+        <v>5.160141430873334</v>
       </c>
       <c r="R12">
-        <v>40.22398802507198</v>
+        <v>46.44127287786</v>
       </c>
       <c r="S12">
-        <v>0.01465246370509814</v>
+        <v>0.001702711779222152</v>
       </c>
       <c r="T12">
-        <v>0.01465246370509814</v>
+        <v>0.002197186949890256</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,57 +1219,57 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>124.734883387419</v>
+        <v>12.33126566666667</v>
       </c>
       <c r="H13">
-        <v>124.734883387419</v>
+        <v>36.993797</v>
       </c>
       <c r="I13">
-        <v>0.3172222884937735</v>
+        <v>0.03070200057641551</v>
       </c>
       <c r="J13">
-        <v>0.3172222884937735</v>
+        <v>0.03230555276798244</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.84938801283048</v>
+        <v>3.922542</v>
       </c>
       <c r="N13">
-        <v>3.84938801283048</v>
+        <v>7.845084</v>
       </c>
       <c r="O13">
-        <v>0.5513678622245018</v>
+        <v>0.5198620519344028</v>
       </c>
       <c r="P13">
-        <v>0.5513678622245018</v>
+        <v>0.4250227990190287</v>
       </c>
       <c r="Q13">
-        <v>480.1529648933385</v>
+        <v>48.369907490658</v>
       </c>
       <c r="R13">
-        <v>480.1529648933385</v>
+        <v>290.219444943948</v>
       </c>
       <c r="S13">
-        <v>0.1749061750567761</v>
+        <v>0.01596080501814658</v>
       </c>
       <c r="T13">
-        <v>0.1749061750567761</v>
+        <v>0.01373059646130482</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1281,57 +1281,57 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>158.541844920009</v>
+        <v>129.0494106666667</v>
       </c>
       <c r="H14">
-        <v>158.541844920009</v>
+        <v>387.148232</v>
       </c>
       <c r="I14">
-        <v>0.4031992134176544</v>
+        <v>0.3213031969122349</v>
       </c>
       <c r="J14">
-        <v>0.4031992134176544</v>
+        <v>0.3380847237148192</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.252720203046769</v>
+        <v>0.255482</v>
       </c>
       <c r="N14">
-        <v>0.252720203046769</v>
+        <v>0.510964</v>
       </c>
       <c r="O14">
-        <v>0.03619842884905233</v>
+        <v>0.03385952189990703</v>
       </c>
       <c r="P14">
-        <v>0.03619842884905233</v>
+        <v>0.02768247599107402</v>
       </c>
       <c r="Q14">
-        <v>40.06672723959404</v>
+        <v>32.96980153594133</v>
       </c>
       <c r="R14">
-        <v>40.06672723959404</v>
+        <v>197.818809215648</v>
       </c>
       <c r="S14">
-        <v>0.01459517803889283</v>
+        <v>0.01087917263235996</v>
       </c>
       <c r="T14">
-        <v>0.01459517803889283</v>
+        <v>0.009359022247184377</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1343,57 +1343,57 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>158.541844920009</v>
+        <v>129.0494106666667</v>
       </c>
       <c r="H15">
-        <v>158.541844920009</v>
+        <v>387.148232</v>
       </c>
       <c r="I15">
-        <v>0.4031992134176544</v>
+        <v>0.3213031969122349</v>
       </c>
       <c r="J15">
-        <v>0.4031992134176544</v>
+        <v>0.3380847237148192</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.55694002074259</v>
+        <v>2.731042</v>
       </c>
       <c r="N15">
-        <v>2.55694002074259</v>
+        <v>8.193125999999999</v>
       </c>
       <c r="O15">
-        <v>0.3662438154776892</v>
+        <v>0.3619502603258385</v>
       </c>
       <c r="P15">
-        <v>0.3662438154776892</v>
+        <v>0.4438786563962321</v>
       </c>
       <c r="Q15">
-        <v>405.3819882383362</v>
+        <v>352.4393606059147</v>
       </c>
       <c r="R15">
-        <v>405.3819882383362</v>
+        <v>3171.954245453232</v>
       </c>
       <c r="S15">
-        <v>0.1476692183196849</v>
+        <v>0.1162957757659076</v>
       </c>
       <c r="T15">
-        <v>0.1476692183196849</v>
+        <v>0.1500685929106253</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,184 +1402,184 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>158.541844920009</v>
+        <v>129.0494106666667</v>
       </c>
       <c r="H16">
-        <v>158.541844920009</v>
+        <v>387.148232</v>
       </c>
       <c r="I16">
-        <v>0.4031992134176544</v>
+        <v>0.3213031969122349</v>
       </c>
       <c r="J16">
-        <v>0.4031992134176544</v>
+        <v>0.3380847237148192</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.322475853848668</v>
+        <v>0.164664</v>
       </c>
       <c r="N16">
-        <v>0.322475853848668</v>
+        <v>0.493992</v>
       </c>
       <c r="O16">
-        <v>0.04618989344875665</v>
+        <v>0.02182323730879784</v>
       </c>
       <c r="P16">
-        <v>0.04618989344875665</v>
+        <v>0.02676298463254288</v>
       </c>
       <c r="Q16">
-        <v>51.12591681132301</v>
+        <v>21.249792158016</v>
       </c>
       <c r="R16">
-        <v>51.12591681132301</v>
+        <v>191.248129422144</v>
       </c>
       <c r="S16">
-        <v>0.01862372870638395</v>
+        <v>0.007011875914291104</v>
       </c>
       <c r="T16">
-        <v>0.01862372870638395</v>
+        <v>0.00904815626527721</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>25</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>158.541844920009</v>
+        <v>129.0494106666667</v>
       </c>
       <c r="H17">
-        <v>158.541844920009</v>
+        <v>387.148232</v>
       </c>
       <c r="I17">
-        <v>0.4031992134176544</v>
+        <v>0.3213031969122349</v>
       </c>
       <c r="J17">
-        <v>0.4031992134176544</v>
+        <v>0.3380847237148192</v>
       </c>
       <c r="K17">
         <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>3.84938801283048</v>
+        <v>0.05316166666666666</v>
       </c>
       <c r="N17">
-        <v>3.84938801283048</v>
+        <v>0.159485</v>
       </c>
       <c r="O17">
-        <v>0.5513678622245018</v>
+        <v>0.007045618152102916</v>
       </c>
       <c r="P17">
-        <v>0.5513678622245018</v>
+        <v>0.008640412403684879</v>
       </c>
       <c r="Q17">
-        <v>610.2890773671115</v>
+        <v>6.86048175339111</v>
       </c>
       <c r="R17">
-        <v>610.2890773671115</v>
+        <v>61.74433578052</v>
       </c>
       <c r="S17">
-        <v>0.2223110883526928</v>
+        <v>0.002263779636493539</v>
       </c>
       <c r="T17">
-        <v>0.2223110883526928</v>
+        <v>0.002921191440281899</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>38.9355676810463</v>
+        <v>129.0494106666667</v>
       </c>
       <c r="H18">
-        <v>38.9355676810463</v>
+        <v>387.148232</v>
       </c>
       <c r="I18">
-        <v>0.09901985353386301</v>
+        <v>0.3213031969122349</v>
       </c>
       <c r="J18">
-        <v>0.09901985353386301</v>
+        <v>0.3380847237148192</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.252720203046769</v>
+        <v>0.41846</v>
       </c>
       <c r="N18">
-        <v>0.252720203046769</v>
+        <v>1.25538</v>
       </c>
       <c r="O18">
-        <v>0.03619842884905233</v>
+        <v>0.05545931037895075</v>
       </c>
       <c r="P18">
-        <v>0.03619842884905233</v>
+        <v>0.06801267155743752</v>
       </c>
       <c r="Q18">
-        <v>9.839804570095238</v>
+        <v>54.00201638757333</v>
       </c>
       <c r="R18">
-        <v>9.839804570095238</v>
+        <v>486.01814748816</v>
       </c>
       <c r="S18">
-        <v>0.003584363122789123</v>
+        <v>0.01781925372330476</v>
       </c>
       <c r="T18">
-        <v>0.003584363122789123</v>
+        <v>0.02299404527260301</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,60 +1588,60 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>38.9355676810463</v>
+        <v>129.0494106666667</v>
       </c>
       <c r="H19">
-        <v>38.9355676810463</v>
+        <v>387.148232</v>
       </c>
       <c r="I19">
-        <v>0.09901985353386301</v>
+        <v>0.3213031969122349</v>
       </c>
       <c r="J19">
-        <v>0.09901985353386301</v>
+        <v>0.3380847237148192</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.55694002074259</v>
+        <v>3.922542</v>
       </c>
       <c r="N19">
-        <v>2.55694002074259</v>
+        <v>7.845084</v>
       </c>
       <c r="O19">
-        <v>0.3662438154776892</v>
+        <v>0.5198620519344028</v>
       </c>
       <c r="P19">
-        <v>0.3662438154776892</v>
+        <v>0.4250227990190287</v>
       </c>
       <c r="Q19">
-        <v>99.55591123399904</v>
+        <v>506.201733415248</v>
       </c>
       <c r="R19">
-        <v>99.55591123399904</v>
+        <v>3037.210400491488</v>
       </c>
       <c r="S19">
-        <v>0.03626540896628393</v>
+        <v>0.1670333392398779</v>
       </c>
       <c r="T19">
-        <v>0.03626540896628393</v>
+        <v>0.1436937155788474</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -1650,60 +1650,60 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>38.9355676810463</v>
+        <v>158.6435343333333</v>
       </c>
       <c r="H20">
-        <v>38.9355676810463</v>
+        <v>475.930603</v>
       </c>
       <c r="I20">
-        <v>0.09901985353386301</v>
+        <v>0.3949857228129294</v>
       </c>
       <c r="J20">
-        <v>0.09901985353386301</v>
+        <v>0.4156156560277983</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.322475853848668</v>
+        <v>0.255482</v>
       </c>
       <c r="N20">
-        <v>0.322475853848668</v>
+        <v>0.510964</v>
       </c>
       <c r="O20">
-        <v>0.04618989344875665</v>
+        <v>0.03385952189990703</v>
       </c>
       <c r="P20">
-        <v>0.04618989344875665</v>
+        <v>0.02768247599107402</v>
       </c>
       <c r="Q20">
-        <v>12.55578043302801</v>
+        <v>40.53056743854866</v>
       </c>
       <c r="R20">
-        <v>12.55578043302801</v>
+        <v>243.183404631292</v>
       </c>
       <c r="S20">
-        <v>0.004573716484040623</v>
+        <v>0.01337402773173499</v>
       </c>
       <c r="T20">
-        <v>0.004573716484040623</v>
+        <v>0.01150527041950401</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1712,60 +1712,60 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>38.9355676810463</v>
+        <v>158.6435343333333</v>
       </c>
       <c r="H21">
-        <v>38.9355676810463</v>
+        <v>475.930603</v>
       </c>
       <c r="I21">
-        <v>0.09901985353386301</v>
+        <v>0.3949857228129294</v>
       </c>
       <c r="J21">
-        <v>0.09901985353386301</v>
+        <v>0.4156156560277983</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>3.84938801283048</v>
+        <v>2.731042</v>
       </c>
       <c r="N21">
-        <v>3.84938801283048</v>
+        <v>8.193125999999999</v>
       </c>
       <c r="O21">
-        <v>0.5513678622245018</v>
+        <v>0.3619502603258385</v>
       </c>
       <c r="P21">
-        <v>0.5513678622245018</v>
+        <v>0.4438786563962321</v>
       </c>
       <c r="Q21">
-        <v>149.8781075041695</v>
+        <v>433.2621552927753</v>
       </c>
       <c r="R21">
-        <v>149.8781075041695</v>
+        <v>3899.359397634978</v>
       </c>
       <c r="S21">
-        <v>0.05459636496074934</v>
+        <v>0.1429651851971293</v>
       </c>
       <c r="T21">
-        <v>0.05459636496074934</v>
+        <v>0.1844829189748577</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>12.7738529438299</v>
+        <v>158.6435343333333</v>
       </c>
       <c r="H22">
-        <v>12.7738529438299</v>
+        <v>475.930603</v>
       </c>
       <c r="I22">
-        <v>0.03248610776456904</v>
+        <v>0.3949857228129294</v>
       </c>
       <c r="J22">
-        <v>0.03248610776456904</v>
+        <v>0.4156156560277983</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>0.252720203046769</v>
+        <v>0.164664</v>
       </c>
       <c r="N22">
-        <v>0.252720203046769</v>
+        <v>0.493992</v>
       </c>
       <c r="O22">
-        <v>0.03619842884905233</v>
+        <v>0.02182323730879784</v>
       </c>
       <c r="P22">
-        <v>0.03619842884905233</v>
+        <v>0.02676298463254288</v>
       </c>
       <c r="Q22">
-        <v>3.22821070965426</v>
+        <v>26.122878937464</v>
       </c>
       <c r="R22">
-        <v>3.22821070965426</v>
+        <v>235.105910437176</v>
       </c>
       <c r="S22">
-        <v>0.001175946060498399</v>
+        <v>0.008619867162533604</v>
       </c>
       <c r="T22">
-        <v>0.001175946060498399</v>
+        <v>0.01112311541531619</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,60 +1836,60 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>12.7738529438299</v>
+        <v>158.6435343333333</v>
       </c>
       <c r="H23">
-        <v>12.7738529438299</v>
+        <v>475.930603</v>
       </c>
       <c r="I23">
-        <v>0.03248610776456904</v>
+        <v>0.3949857228129294</v>
       </c>
       <c r="J23">
-        <v>0.03248610776456904</v>
+        <v>0.4156156560277983</v>
       </c>
       <c r="K23">
         <v>1</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M23">
-        <v>2.55694002074259</v>
+        <v>0.05316166666666666</v>
       </c>
       <c r="N23">
-        <v>2.55694002074259</v>
+        <v>0.159485</v>
       </c>
       <c r="O23">
-        <v>0.3662438154776892</v>
+        <v>0.007045618152102916</v>
       </c>
       <c r="P23">
-        <v>0.3662438154776892</v>
+        <v>0.008640412403684879</v>
       </c>
       <c r="Q23">
-        <v>32.66197581115922</v>
+        <v>8.433754691050554</v>
       </c>
       <c r="R23">
-        <v>32.66197581115922</v>
+        <v>75.90379221945499</v>
       </c>
       <c r="S23">
-        <v>0.01189783605771515</v>
+        <v>0.002782918578472266</v>
       </c>
       <c r="T23">
-        <v>0.01189783605771515</v>
+        <v>0.003591090669508217</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1901,57 +1901,57 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>12.7738529438299</v>
+        <v>158.6435343333333</v>
       </c>
       <c r="H24">
-        <v>12.7738529438299</v>
+        <v>475.930603</v>
       </c>
       <c r="I24">
-        <v>0.03248610776456904</v>
+        <v>0.3949857228129294</v>
       </c>
       <c r="J24">
-        <v>0.03248610776456904</v>
+        <v>0.4156156560277983</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.322475853848668</v>
+        <v>0.41846</v>
       </c>
       <c r="N24">
-        <v>0.322475853848668</v>
+        <v>1.25538</v>
       </c>
       <c r="O24">
-        <v>0.04618989344875665</v>
+        <v>0.05545931037895075</v>
       </c>
       <c r="P24">
-        <v>0.04618989344875665</v>
+        <v>0.06801267155743752</v>
       </c>
       <c r="Q24">
-        <v>4.119259134998869</v>
+        <v>66.38597337712666</v>
       </c>
       <c r="R24">
-        <v>4.119259134998869</v>
+        <v>597.47376039414</v>
       </c>
       <c r="S24">
-        <v>0.00150052985621027</v>
+        <v>0.02190563579673646</v>
       </c>
       <c r="T24">
-        <v>0.00150052985621027</v>
+        <v>0.02826713110754758</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1963,52 +1963,796 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>12.7738529438299</v>
+        <v>158.6435343333333</v>
       </c>
       <c r="H25">
-        <v>12.7738529438299</v>
+        <v>475.930603</v>
       </c>
       <c r="I25">
-        <v>0.03248610776456904</v>
+        <v>0.3949857228129294</v>
       </c>
       <c r="J25">
-        <v>0.03248610776456904</v>
+        <v>0.4156156560277983</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>3.84938801283048</v>
+        <v>3.922542</v>
       </c>
       <c r="N25">
-        <v>3.84938801283048</v>
+        <v>7.845084</v>
       </c>
       <c r="O25">
-        <v>0.5513678622245018</v>
+        <v>0.5198620519344028</v>
       </c>
       <c r="P25">
-        <v>0.5513678622245018</v>
+        <v>0.4250227990190287</v>
       </c>
       <c r="Q25">
-        <v>49.17151639963815</v>
+        <v>622.2859264509419</v>
       </c>
       <c r="R25">
-        <v>49.17151639963815</v>
+        <v>3733.715558705652</v>
       </c>
       <c r="S25">
-        <v>0.01791179579014522</v>
+        <v>0.2053380883463227</v>
       </c>
       <c r="T25">
-        <v>0.01791179579014522</v>
+        <v>0.1766461294410647</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>41.810285</v>
+      </c>
+      <c r="H26">
+        <v>125.430855</v>
+      </c>
+      <c r="I26">
+        <v>0.1040979432987182</v>
+      </c>
+      <c r="J26">
+        <v>0.1095349337872956</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.255482</v>
+      </c>
+      <c r="N26">
+        <v>0.510964</v>
+      </c>
+      <c r="O26">
+        <v>0.03385952189990703</v>
+      </c>
+      <c r="P26">
+        <v>0.02768247599107402</v>
+      </c>
+      <c r="Q26">
+        <v>10.68177523237</v>
+      </c>
+      <c r="R26">
+        <v>64.09065139422</v>
+      </c>
+      <c r="S26">
+        <v>0.003524706590858228</v>
+      </c>
+      <c r="T26">
+        <v>0.003032198174750692</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>41.810285</v>
+      </c>
+      <c r="H27">
+        <v>125.430855</v>
+      </c>
+      <c r="I27">
+        <v>0.1040979432987182</v>
+      </c>
+      <c r="J27">
+        <v>0.1095349337872956</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>2.731042</v>
+      </c>
+      <c r="N27">
+        <v>8.193125999999999</v>
+      </c>
+      <c r="O27">
+        <v>0.3619502603258385</v>
+      </c>
+      <c r="P27">
+        <v>0.4438786563962321</v>
+      </c>
+      <c r="Q27">
+        <v>114.18564436697</v>
+      </c>
+      <c r="R27">
+        <v>1027.67079930273</v>
+      </c>
+      <c r="S27">
+        <v>0.03767827767635542</v>
+      </c>
+      <c r="T27">
+        <v>0.04862021923795501</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>41.810285</v>
+      </c>
+      <c r="H28">
+        <v>125.430855</v>
+      </c>
+      <c r="I28">
+        <v>0.1040979432987182</v>
+      </c>
+      <c r="J28">
+        <v>0.1095349337872956</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M28">
+        <v>0.164664</v>
+      </c>
+      <c r="N28">
+        <v>0.493992</v>
+      </c>
+      <c r="O28">
+        <v>0.02182323730879784</v>
+      </c>
+      <c r="P28">
+        <v>0.02676298463254288</v>
+      </c>
+      <c r="Q28">
+        <v>6.88464876924</v>
+      </c>
+      <c r="R28">
+        <v>61.96183892316</v>
+      </c>
+      <c r="S28">
+        <v>0.002271754119965709</v>
+      </c>
+      <c r="T28">
+        <v>0.002931481749675993</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>41.810285</v>
+      </c>
+      <c r="H29">
+        <v>125.430855</v>
+      </c>
+      <c r="I29">
+        <v>0.1040979432987182</v>
+      </c>
+      <c r="J29">
+        <v>0.1095349337872956</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M29">
+        <v>0.05316166666666666</v>
+      </c>
+      <c r="N29">
+        <v>0.159485</v>
+      </c>
+      <c r="O29">
+        <v>0.007045618152102916</v>
+      </c>
+      <c r="P29">
+        <v>0.008640412403684879</v>
+      </c>
+      <c r="Q29">
+        <v>2.222704434408333</v>
+      </c>
+      <c r="R29">
+        <v>20.004339909675</v>
+      </c>
+      <c r="S29">
+        <v>0.0007334343589020288</v>
+      </c>
+      <c r="T29">
+        <v>0.0009464270005325507</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>41.810285</v>
+      </c>
+      <c r="H30">
+        <v>125.430855</v>
+      </c>
+      <c r="I30">
+        <v>0.1040979432987182</v>
+      </c>
+      <c r="J30">
+        <v>0.1095349337872956</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>0.41846</v>
+      </c>
+      <c r="N30">
+        <v>1.25538</v>
+      </c>
+      <c r="O30">
+        <v>0.05545931037895075</v>
+      </c>
+      <c r="P30">
+        <v>0.06801267155743752</v>
+      </c>
+      <c r="Q30">
+        <v>17.4959318611</v>
+      </c>
+      <c r="R30">
+        <v>157.4633867499</v>
+      </c>
+      <c r="S30">
+        <v>0.005773200147214027</v>
+      </c>
+      <c r="T30">
+        <v>0.007449763475741</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>41.810285</v>
+      </c>
+      <c r="H31">
+        <v>125.430855</v>
+      </c>
+      <c r="I31">
+        <v>0.1040979432987182</v>
+      </c>
+      <c r="J31">
+        <v>0.1095349337872956</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>3.922542</v>
+      </c>
+      <c r="N31">
+        <v>7.845084</v>
+      </c>
+      <c r="O31">
+        <v>0.5198620519344028</v>
+      </c>
+      <c r="P31">
+        <v>0.4250227990190287</v>
+      </c>
+      <c r="Q31">
+        <v>164.00259894447</v>
+      </c>
+      <c r="R31">
+        <v>984.0155936668201</v>
+      </c>
+      <c r="S31">
+        <v>0.05411657040542274</v>
+      </c>
+      <c r="T31">
+        <v>0.04655484414864034</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>12.780919</v>
+      </c>
+      <c r="H32">
+        <v>25.561838</v>
+      </c>
+      <c r="I32">
+        <v>0.03182153341857176</v>
+      </c>
+      <c r="J32">
+        <v>0.02232237221704002</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>0.255482</v>
+      </c>
+      <c r="N32">
+        <v>0.510964</v>
+      </c>
+      <c r="O32">
+        <v>0.03385952189990703</v>
+      </c>
+      <c r="P32">
+        <v>0.02768247599107402</v>
+      </c>
+      <c r="Q32">
+        <v>3.265294747958</v>
+      </c>
+      <c r="R32">
+        <v>13.061178991832</v>
+      </c>
+      <c r="S32">
+        <v>0.001077461907674754</v>
+      </c>
+      <c r="T32">
+        <v>0.0006179385329620283</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>12.780919</v>
+      </c>
+      <c r="H33">
+        <v>25.561838</v>
+      </c>
+      <c r="I33">
+        <v>0.03182153341857176</v>
+      </c>
+      <c r="J33">
+        <v>0.02232237221704002</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>2.731042</v>
+      </c>
+      <c r="N33">
+        <v>8.193125999999999</v>
+      </c>
+      <c r="O33">
+        <v>0.3619502603258385</v>
+      </c>
+      <c r="P33">
+        <v>0.4438786563962321</v>
+      </c>
+      <c r="Q33">
+        <v>34.905226587598</v>
+      </c>
+      <c r="R33">
+        <v>209.431359525588</v>
+      </c>
+      <c r="S33">
+        <v>0.01151781230481942</v>
+      </c>
+      <c r="T33">
+        <v>0.009908424587276306</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>12.780919</v>
+      </c>
+      <c r="H34">
+        <v>25.561838</v>
+      </c>
+      <c r="I34">
+        <v>0.03182153341857176</v>
+      </c>
+      <c r="J34">
+        <v>0.02232237221704002</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M34">
+        <v>0.164664</v>
+      </c>
+      <c r="N34">
+        <v>0.493992</v>
+      </c>
+      <c r="O34">
+        <v>0.02182323730879784</v>
+      </c>
+      <c r="P34">
+        <v>0.02676298463254288</v>
+      </c>
+      <c r="Q34">
+        <v>2.104557246216</v>
+      </c>
+      <c r="R34">
+        <v>12.627343477296</v>
+      </c>
+      <c r="S34">
+        <v>0.0006944488753233327</v>
+      </c>
+      <c r="T34">
+        <v>0.0005974133046065442</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>12.780919</v>
+      </c>
+      <c r="H35">
+        <v>25.561838</v>
+      </c>
+      <c r="I35">
+        <v>0.03182153341857176</v>
+      </c>
+      <c r="J35">
+        <v>0.02232237221704002</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M35">
+        <v>0.05316166666666666</v>
+      </c>
+      <c r="N35">
+        <v>0.159485</v>
+      </c>
+      <c r="O35">
+        <v>0.007045618152102916</v>
+      </c>
+      <c r="P35">
+        <v>0.008640412403684879</v>
+      </c>
+      <c r="Q35">
+        <v>0.6794549555716667</v>
+      </c>
+      <c r="R35">
+        <v>4.07672973343</v>
+      </c>
+      <c r="S35">
+        <v>0.0002242023734816387</v>
+      </c>
+      <c r="T35">
+        <v>0.0001928745017837834</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>12.780919</v>
+      </c>
+      <c r="H36">
+        <v>25.561838</v>
+      </c>
+      <c r="I36">
+        <v>0.03182153341857176</v>
+      </c>
+      <c r="J36">
+        <v>0.02232237221704002</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>0.41846</v>
+      </c>
+      <c r="N36">
+        <v>1.25538</v>
+      </c>
+      <c r="O36">
+        <v>0.05545931037895075</v>
+      </c>
+      <c r="P36">
+        <v>0.06801267155743752</v>
+      </c>
+      <c r="Q36">
+        <v>5.34830336474</v>
+      </c>
+      <c r="R36">
+        <v>32.08982018844</v>
+      </c>
+      <c r="S36">
+        <v>0.001764800298594725</v>
+      </c>
+      <c r="T36">
+        <v>0.001518204169980412</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>12.780919</v>
+      </c>
+      <c r="H37">
+        <v>25.561838</v>
+      </c>
+      <c r="I37">
+        <v>0.03182153341857176</v>
+      </c>
+      <c r="J37">
+        <v>0.02232237221704002</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>3.922542</v>
+      </c>
+      <c r="N37">
+        <v>7.845084</v>
+      </c>
+      <c r="O37">
+        <v>0.5198620519344028</v>
+      </c>
+      <c r="P37">
+        <v>0.4250227990190287</v>
+      </c>
+      <c r="Q37">
+        <v>50.133691576098</v>
+      </c>
+      <c r="R37">
+        <v>200.534766304392</v>
+      </c>
+      <c r="S37">
+        <v>0.01654280765867789</v>
+      </c>
+      <c r="T37">
+        <v>0.009487517120430953</v>
       </c>
     </row>
   </sheetData>
